--- a/ML/Assignment_02/Height_Handspan.xlsx
+++ b/ML/Assignment_02/Height_Handspan.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmuthuli\Desktop\ML\Assignment_02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="15315" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27330" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -18,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="5">
   <si>
-    <t>'Sex'</t>
-  </si>
-  <si>
-    <t>'Height'</t>
-  </si>
-  <si>
-    <t>'HandSpan'</t>
-  </si>
-  <si>
     <t>'Female'</t>
   </si>
   <si>
     <t>'Male'</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>HandSpan</t>
   </si>
 </sst>
 </file>
@@ -87,6 +90,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -134,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,25 +387,25 @@
   <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>68</v>
@@ -410,7 +416,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -421,7 +427,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>73</v>
@@ -432,7 +438,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>64</v>
@@ -443,7 +449,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>68</v>
@@ -454,7 +460,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>59</v>
@@ -465,7 +471,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -476,7 +482,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -487,7 +493,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -498,7 +504,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>69</v>
@@ -509,7 +515,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>69</v>
@@ -520,7 +526,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>64</v>
@@ -531,7 +537,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>67</v>
@@ -542,7 +548,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>67</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>69</v>
@@ -564,7 +570,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>73</v>
@@ -575,7 +581,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>62</v>
@@ -586,7 +592,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>69</v>
@@ -597,7 +603,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>64</v>
@@ -608,7 +614,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>74</v>
@@ -619,7 +625,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>73</v>
@@ -630,7 +636,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>66</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24">
         <v>74</v>
@@ -652,7 +658,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>73</v>
@@ -663,7 +669,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>69</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>64</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>67</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>75</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>64</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>67</v>
@@ -740,7 +746,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>67</v>
@@ -751,7 +757,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>66</v>
@@ -762,7 +768,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>72</v>
@@ -784,7 +790,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>71</v>
@@ -795,7 +801,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>61</v>
@@ -806,7 +812,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>63</v>
@@ -817,7 +823,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>66</v>
@@ -828,7 +834,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>71</v>
@@ -839,7 +845,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>71</v>
@@ -850,7 +856,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>66</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>70</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>67</v>
@@ -883,7 +889,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>69</v>
@@ -894,7 +900,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>67</v>
@@ -905,7 +911,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>68</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49">
         <v>67</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>68</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>71</v>
@@ -949,7 +955,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B52">
         <v>70</v>
@@ -960,7 +966,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53">
         <v>74</v>
@@ -971,7 +977,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>65</v>
@@ -993,7 +999,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56">
         <v>72</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>76</v>
@@ -1015,7 +1021,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>66</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>64.5</v>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60">
         <v>71</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61">
         <v>69</v>
@@ -1059,7 +1065,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>64</v>
@@ -1070,7 +1076,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>65</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64">
         <v>74</v>
@@ -1092,7 +1098,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65">
         <v>68</v>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>68</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>69</v>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>68</v>
@@ -1136,7 +1142,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -1147,7 +1153,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B70">
         <v>61.5</v>
@@ -1158,7 +1164,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B71">
         <v>63</v>
@@ -1169,7 +1175,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B72">
         <v>67</v>
@@ -1180,7 +1186,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -1191,7 +1197,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B75">
         <v>63</v>
@@ -1213,7 +1219,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B76">
         <v>61</v>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77">
         <v>67</v>
@@ -1235,7 +1241,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>72</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <v>72</v>
@@ -1257,7 +1263,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B80">
         <v>68</v>
@@ -1268,7 +1274,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B81">
         <v>66</v>
@@ -1279,7 +1285,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B82">
         <v>67</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>67</v>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>72</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B85">
         <v>67.5</v>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B86">
         <v>63.75</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B87">
         <v>72</v>
@@ -1345,7 +1351,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>69</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B89">
         <v>68</v>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>71</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>71</v>
@@ -1389,7 +1395,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>63</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>70</v>
@@ -1411,7 +1417,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>68</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B95">
         <v>67.5</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B96">
         <v>75</v>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B97">
         <v>74</v>
@@ -1455,7 +1461,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <v>71</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>71</v>
@@ -1477,7 +1483,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B100">
         <v>64</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B101">
         <v>71</v>
@@ -1499,7 +1505,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B102">
         <v>69</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B103">
         <v>65</v>
@@ -1521,7 +1527,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>69</v>
@@ -1532,7 +1538,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B105">
         <v>63</v>
@@ -1543,7 +1549,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>70</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>71</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B108">
         <v>64</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>63</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B110">
         <v>65</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B111">
         <v>66</v>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B112">
         <v>66</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B113">
         <v>65</v>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>67.5</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>57</v>
@@ -1653,7 +1659,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B116">
         <v>72</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B117">
         <v>64</v>
@@ -1675,7 +1681,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B118">
         <v>67</v>
@@ -1686,7 +1692,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B119">
         <v>68</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B120">
         <v>63</v>
@@ -1708,7 +1714,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B121">
         <v>67</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B122">
         <v>66</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>72</v>
@@ -1741,7 +1747,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>74</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>69</v>
@@ -1763,7 +1769,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B126">
         <v>68</v>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B127">
         <v>65</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B128">
         <v>64</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B129">
         <v>67</v>
@@ -1807,7 +1813,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>74</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>73</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B132">
         <v>64</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>76</v>
@@ -1851,7 +1857,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B134">
         <v>68</v>
@@ -1862,7 +1868,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>76</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B136">
         <v>64.25</v>
@@ -1884,7 +1890,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>69</v>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>75</v>
@@ -1906,7 +1912,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B139">
         <v>61.5</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>69</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B141">
         <v>67</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>74</v>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>74</v>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B144">
         <v>71</v>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>71</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B146">
         <v>63</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>67</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B148">
         <v>65</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B149">
         <v>68</v>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B150">
         <v>67</v>
@@ -2038,7 +2044,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>73</v>
@@ -2049,7 +2055,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B152">
         <v>78</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>62</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B154">
         <v>70</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B155">
         <v>64</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B156">
         <v>64</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>72</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B158">
         <v>74</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>70</v>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B160">
         <v>70</v>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B161">
         <v>62</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B162">
         <v>64</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B163">
         <v>66</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>60</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>73</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B166">
         <v>66</v>
@@ -2214,7 +2220,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B167">
         <v>68</v>
@@ -2225,7 +2231,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>73</v>
@@ -2238,28 +2244,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>